--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariohg/Library/CloudStorage/Dropbox/marposdoc/cursos/CURSO_R_CICESE_2023/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariohg/Documents/GitHub/Taller_Intro_R_CICESE-2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4ADB4-7779-E042-8EAE-D3C18FAA5260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B71398A-50F2-734B-B141-9AF81B659D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +405,7 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -417,7 +424,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -434,7 +441,7 @@
       <c r="B2">
         <v>3.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.4</v>
       </c>
       <c r="D2">
@@ -451,7 +458,7 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.4</v>
       </c>
       <c r="D3">
@@ -468,7 +475,7 @@
       <c r="B4">
         <v>3.2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.3</v>
       </c>
       <c r="D4">
@@ -485,7 +492,7 @@
       <c r="B5">
         <v>3.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1.5</v>
       </c>
       <c r="D5">
@@ -502,7 +509,7 @@
       <c r="B6">
         <v>3.6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.4</v>
       </c>
       <c r="D6">
@@ -519,7 +526,7 @@
       <c r="B7">
         <v>3.9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.7</v>
       </c>
       <c r="D7">
@@ -536,7 +543,7 @@
       <c r="B8">
         <v>3.4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.4</v>
       </c>
       <c r="D8">
@@ -553,7 +560,7 @@
       <c r="B9">
         <v>3.4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.5</v>
       </c>
       <c r="D9">
@@ -570,7 +577,7 @@
       <c r="B10">
         <v>2.9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.4</v>
       </c>
       <c r="D10">
@@ -587,7 +594,7 @@
       <c r="B11">
         <v>3.1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.5</v>
       </c>
       <c r="D11">
